--- a/output/fit_clients/fit_round_51.xlsx
+++ b/output/fit_clients/fit_round_51.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8798788901.807091</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004611624935077134</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.379396131046432</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9833543350436217</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.379396131046432</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6359326254.378033</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005373295920002368</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.897394320473691</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9382091438138436</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.897394320473691</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4104595782.5351</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.0028129996625466</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.574930421014391</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9912074333856472</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.574930421014391</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3997142263.847519</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004198210800467144</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.927171072356077</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8686205473778699</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.927171072356077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6201663827.122908</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002620046430980366</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.47275620599025</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8695353779249544</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.47275620599025</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6214469176.96012</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008224542713072381</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.08231489892717048</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.892037651462836</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.2863841599872787</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.892037651462836</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7251764924.44719</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002918680862560527</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.5263491141922</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9802212123638314</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.5263491141922</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5379618270.019092</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003862225296912679</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.485808192596401</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9349863217417932</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.485808192596401</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4371262055.500734</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003480494311214674</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.027681082468307</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.977832538236283</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.027681082468307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4461184999.325031</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001221548570546489</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5869399678649053</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.751543449147651</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7304356614957241</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.751543449147651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>5828097223.736813</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001798135726709081</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.985207865536849</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.041346490028079</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.985207865536849</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5379494897.85004</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004017260324822329</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.671862440872389</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.046148056435334</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.671862440872389</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7055560282.237295</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002956534123731138</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.386811618587879</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9302799869514901</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.386811618587879</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6687953053.127667</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005700936444397423</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.31737886119623</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.001900835742583</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.31737886119623</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6197188287.38123</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004325761078652698</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.281213679429098</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9383318668332212</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.281213679429098</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5193728550.936293</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.00257201403372746</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.31517474005564</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9712834998669846</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.31517474005564</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6072106966.844653</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008824640433263962</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.678849399394512</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9989988006743757</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-4.678849399394512</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>2875278784.718615</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002375749784405968</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.812523336265035</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9230195740428657</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.812523336265035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4956898967.330967</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001170086940828535</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6511602175395884</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.554950951753451</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.837401043865563</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.554950951753451</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6214947109.160403</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004982808284520366</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.813498741973753</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.869337153721627</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.9707132073031708</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.869337153721627</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>3939591549.795697</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004807103246983813</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.316008006966892</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8575280763610021</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.316008006966892</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7071656474.124809</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001401990592332271</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7758626924144112</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.322460893749127</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9327298515723803</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.322460893749127</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8489210493.593847</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003024311529825932</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.319171870808138</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.019104564497972</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.319171870808138</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4790150808.759032</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003028792490589681</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.678099811253916</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9746816658543177</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.678099811253916</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4384351064.153117</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001024742915598359</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.53514884558104</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8355083936006704</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.53514884558104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5977079037.199972</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002919202258596675</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971371</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.947106233627502</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9542318212568818</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.947106233627502</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6829298319.551641</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005701710201857032</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9453837555948055</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.949857871614034</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.116938223148193</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.949857871614034</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5856095318.205043</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001324560879980856</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.501171564423236</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.017033701803347</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.501171564423236</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8883026303.036844</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002984226434874485</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.082357160607216</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9325435201100517</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.082357160607216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>4884667865.620056</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003384760462259012</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.879708460533841</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9832372315317756</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.879708460533841</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3322969567.602893</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0008992560411954834</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.49929744078538</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9701085684815685</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.49929744078538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7310581926.956857</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003121838328134845</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.490026870488444</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.875095149283852</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.490026870488444</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6797890749.04209</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004349066085091404</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6200161410527526</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.543044715957396</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.752862753517362</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.543044715957396</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5474336037.546175</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002127999754901383</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>10</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.050699131178955</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.190922812831039</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.050699131178955</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7027707139.999835</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002495248685343199</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.208816970864371</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.048436004583609</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.208816970864371</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5423150324.07841</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.0040162728091473</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.096404081835693</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.041070014622825</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.096404081835693</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3584088747.870914</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004295688159593383</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.841233294321431</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9242543678764921</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.841233294321431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5038336268.760969</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002538605205827773</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8356694306091701</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.251274935857551</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9903160936396477</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.251274935857551</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7163498204.244511</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003751898381992913</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.247087767596342</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.011581919771965</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.247087767596342</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7207237482.835709</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001023268309512423</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.8059534199015697</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.233198596588172</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.044705787971056</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.233198596588172</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5672178207.797231</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005227789391787495</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.820837713162765</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9975102590649896</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.820837713162765</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5641867722.245434</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004501418508186928</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.515592026815659</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9656926849150237</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.515592026815659</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6497473105.254176</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002073782033100889</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.823664121121669</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.950700009819675</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.823664121121669</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5542942906.868321</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001617501740610803</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.205864924462191</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.96998986585559</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.205864924462191</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>6973411047.520334</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004839941138830764</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6823547271563984</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.94817731755752</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8429652960039186</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.94817731755752</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7968311684.279358</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002014227983765446</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.313102167235051</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9441457065091149</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.313102167235051</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5682353591.737605</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003266293050405615</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.94096670819645</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9890781633532205</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.94096670819645</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5468213930.344848</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004036862305255659</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>12</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.863102269132986</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.938533504927746</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.037281574985149</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.938533504927746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7829318895.706048</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002751065173155402</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.502409243004287</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.07326113413183</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.502409243004287</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4008965079.490434</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.00366481548650511</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>12</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.874185500467061</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9743862749472184</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.874185500467061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5606669902.809571</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002013113487043483</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.989405745245868</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.874963556681828</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.989405745245868</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6034286299.670683</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002982053904417923</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.227261630747128</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9566192417279858</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.227261630747128</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4960534337.254378</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004401571102536067</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.726435548922039</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8673729303154072</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.726435548922039</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6095074457.586507</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002814926749607231</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.8428038670348987</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.602920032317025</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.031846630410328</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.602920032317025</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4806303052.430416</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002300506280153741</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>8</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.431654249616677</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9544128094632031</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.431654249616677</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6073415456.173311</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003382161769314282</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.707003072756231</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.880545373081971</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.859979741918257</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.880545373081971</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5727475212.532036</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001999686695825093</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.555398930333464</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8355083936006704</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.555398930333464</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5109033705.689408</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004125742883668616</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.019104764657711</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9184399863424441</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.019104764657711</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4519940863.924216</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002866595210279843</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>10</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.934852489620069</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.863752585972086</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.934852489620069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5463028139.297179</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005823531629227921</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>14</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.283694977163565</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9563182716529027</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.283694977163565</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4827700049.222811</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002560079439152926</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.504328729341053</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.889627078684681</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.504328729341053</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8128049147.165543</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003914839750889063</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.665719456386932</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9253008682818015</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.665719456386932</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4602114822.452392</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005054887504581114</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.8817718507243881</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.852400024627264</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.095257951641942</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.852400024627264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5677051942.489883</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004504263040935496</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>9</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.662801402139824</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.047402597201356</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.662801402139824</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6766901914.556987</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002921358898280472</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.432242902230864</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9521407987799156</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.432242902230864</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>4725736983.18058</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004688110308077184</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6339326541160659</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.705840431131667</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8829426096451615</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.705840431131667</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7506128679.538426</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002480034974579638</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
         <v>11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.789810718617131</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7596161437875746</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.789810718617131</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6452835669.652812</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001006834004648539</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.690636075926107</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-0.3704792868174742</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.690636075926107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7077039469.711537</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003138688728221143</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.063701226399668</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9511843605665415</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.063701226399668</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3801115175.82829</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002992038503307857</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.570866871760441</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8436588709971443</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.570866871760441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7186789490.554655</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001797526722446301</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>12</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.3334629720525299</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.803323361863646</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.6565163992854474</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.803323361863646</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6417156189.817629</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009883009818741693</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.377324745149125</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9878661161110209</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.377324745149125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6040776126.488635</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004726109055907071</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.148365199596466</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9090216252858679</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.148365199596466</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6863900312.669157</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003405303601893346</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.8230836322237768</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.786616976007978</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.9792855992526286</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.786616976007978</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5976358528.243345</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002683289990477172</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.792734180673509</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.933457381150696</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.792734180673509</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6739307263.607441</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005820175356463242</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.932552286357273</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.02668424607105</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.932552286357273</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5217715588.243796</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004254163244108287</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>13</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.740169499178507</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9194304875451892</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.740169499178507</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6540087738.741005</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002036848008605082</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.81609698692034</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.001049458886132</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.81609698692034</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5908488091.11987</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002253409595022851</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.000731008664634</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9809732901127715</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.000731008664634</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6802974257.345348</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003543234196964576</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.819116942263159</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.009666707285613</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.819116942263159</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8734353844.83803</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004285907920126568</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.135887715962205</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9324817797200331</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.135887715962205</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9087229418.806023</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003468785478326184</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>17</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.317273723249584</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8128924589433368</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.317273723249584</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6846161155.558614</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005465822373590178</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>13</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.676762259934378</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9665156386910922</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.676762259934378</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3947062816.664114</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002842920470866764</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>14</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.55243304534845</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9170090315105894</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.55243304534845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6405616783.365297</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002458544583934851</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.186681939161114</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.013663920235063</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.186681939161114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4266162502.025075</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001210045129201593</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>15</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.514567475044482</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9863607740331802</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.514567475044482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8567701899.353194</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003724209521245637</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.856447850976743</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8586559043363543</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.856447850976743</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7960056950.828053</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005254808600515413</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.162303711679118</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9689322123703275</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.162303711679118</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7210908768.660663</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003069558280811865</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.98622418517863</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9666943270769044</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.98622418517863</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5935610498.20524</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004156006814399906</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.7732292328664919</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.760216520191375</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.9211986174813012</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.760216520191375</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4875914179.565899</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003292526624664332</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.285816352139379</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.072939223675555</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.285816352139379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6474917101.591147</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001430005113473</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>12</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.82369463746048</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9369927401337775</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.82369463746048</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5148829430.941086</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001422374929679666</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.945691376636498</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.05785452384688</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.945691376636498</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7461446974.53684</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001877993801935797</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.329951299357221</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9532774810013872</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.329951299357221</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7266010678.124313</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003052371964820394</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>15</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.580326455937371</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.927514480873712</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.580326455937371</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7024533133.896003</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004881392014539666</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>10</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.197903761527792</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9137114359470017</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.197903761527792</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7060682181.941128</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00363069208331752</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.43445438143717</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.9162672866116848</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.43445438143717</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2551686360.161255</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005529829126372354</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.855045534491309</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9218455830469542</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.855045534491309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4667116367.876273</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002801861357898711</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.327752914062628</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8651385320486962</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.327752914062628</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6448177004.489891</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001177372353848872</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6828771771970945</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.091103861249451</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.9040527931137455</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.091103861249451</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_51.xlsx
+++ b/output/fit_clients/fit_round_51.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8798788901.807091</v>
+        <v>2016963260.170056</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004611624935077134</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13</v>
+        <v>0.1069586923589951</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04235440563160434</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1008481627.882862</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6359326254.378033</v>
+        <v>1893990678.122475</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005373295920002368</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1645351965259398</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04308350350788656</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>12</v>
+      <c r="J3" t="n">
+        <v>946995362.5714759</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4104595782.5351</v>
+        <v>4459432064.425852</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0028129996625466</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
+        <v>0.1133965038619438</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03140767470482449</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2229716078.803172</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3997142263.847519</v>
+        <v>3354080367.955377</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004198210800467144</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1030247280038356</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0459757004250081</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1677040230.280621</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6201663827.122908</v>
+        <v>2014387547.881901</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002620046430980366</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
+        <v>0.1304148453719938</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.055649796707687</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1007193801.825853</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6214469176.96012</v>
+        <v>3047972025.883043</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008224542713072381</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17</v>
+        <v>0.08169614064457892</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04707280664139026</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1523985973.09236</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7251764924.44719</v>
+        <v>2667728563.935488</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002918680862560527</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+        <v>0.2143568763050515</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03281917384173468</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1333864305.413413</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5379618270.019092</v>
+        <v>1453336579.295261</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003862225296912679</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>16</v>
+        <v>0.135904855869692</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02970753017075457</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>726668391.9987206</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4371262055.500734</v>
+        <v>4020889361.306606</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003480494311214674</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.215373561946858</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04306451245101674</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2010444704.035937</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4461184999.325031</v>
+        <v>2853406899.265844</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001221548570546489</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.142980260629252</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04943035619004901</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1426703382.170674</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>5828097223.736813</v>
+        <v>2118815080.872175</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001798135726709081</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15</v>
+        <v>0.1751888291100035</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03622698894023423</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1059407477.602974</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5379494897.85004</v>
+        <v>4736009399.934447</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004017260324822329</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
+        <v>0.07145282038962202</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02629437938824967</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2368004717.375825</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7055560282.237295</v>
+        <v>2682925793.88597</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002956534123731138</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>12</v>
+        <v>0.1560790154207977</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04015853978892481</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1341462954.217121</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6687953053.127667</v>
+        <v>1385431275.894156</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005700936444397423</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14</v>
+        <v>0.08886123627340776</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04914162473695072</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>692715697.357922</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6197188287.38123</v>
+        <v>2869397916.457267</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004325761078652698</v>
-      </c>
-      <c r="G16" t="b">
+        <v>0.113403407074034</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0416470659300229</v>
+      </c>
+      <c r="H16" t="b">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>15</v>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1434698955.902261</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5193728550.936293</v>
+        <v>3854707796.023471</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00257201403372746</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11</v>
+        <v>0.1645503914069158</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04887237355764808</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1927353939.604805</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6072106966.844653</v>
+        <v>3499669182.386691</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008824640433263962</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>14</v>
+        <v>0.1470490951750322</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03241351097829127</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1749834585.12159</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>2875278784.718615</v>
+        <v>880496114.9670322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002375749784405968</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1630981509949781</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02021419160011462</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>440248057.4822404</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4956898967.330967</v>
+        <v>1862315691.581573</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001170086940828535</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
+        <v>0.1155472991191728</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02291076317709298</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>931157886.6659819</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6214947109.160403</v>
+        <v>1734170320.810956</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004982808284520366</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
+        <v>0.06625082494363999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02843026445252751</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>867085221.6169399</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3939591549.795697</v>
+        <v>3772385821.36652</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004807103246983813</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.08861615683258062</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05393954884199272</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1886192925.819651</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7071656474.124809</v>
+        <v>1337632204.900148</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001401990592332271</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
+        <v>0.1791276367324834</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05357985969358433</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>668816115.6078396</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8489210493.593847</v>
+        <v>3860304477.27385</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003024311529825932</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.1347972979206183</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02603568850809949</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1930152215.879113</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4790150808.759032</v>
+        <v>1352927772.017351</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003028792490589681</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
+        <v>0.1066876209910783</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02006056912123579</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>676463868.6529044</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4384351064.153117</v>
+        <v>1366005577.224596</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001024742915598359</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1165038279287019</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03893783981556534</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>683002850.1585302</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5977079037.199972</v>
+        <v>3770510882.394855</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002919202258596675</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>0.1419897296838894</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01904353834302294</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1885255462.614055</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6829298319.551641</v>
+        <v>3570564245.080888</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005701710201857032</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>13</v>
+        <v>0.1441496479922458</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0388701831098877</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1785282183.161065</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5856095318.205043</v>
+        <v>4332384679.803455</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001324560879980856</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.1253687458849964</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03679350376463514</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2166192333.585598</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8883026303.036844</v>
+        <v>2368817786.212879</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002984226434874485</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>16</v>
+        <v>0.1127849463659434</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03782489013710431</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1184408972.404309</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>4884667865.620056</v>
+        <v>1085975385.891382</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003384760462259012</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
+        <v>0.0868437557666986</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04485012493857404</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>542987671.0975764</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3322969567.602893</v>
+        <v>1743751119.24456</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0008992560411954834</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08542393902129955</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02975020662901631</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>871875678.330683</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7310581926.956857</v>
+        <v>2460909747.576754</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003121838328134845</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11</v>
+        <v>0.1698168274388417</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05848417699522088</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1230454915.205889</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6797890749.04209</v>
+        <v>966922100.8892877</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004349066085091404</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>16</v>
+        <v>0.07394896703773242</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02172960569838171</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>483461093.637449</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5474336037.546175</v>
+        <v>1102370837.865816</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002127999754901383</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>13</v>
+        <v>0.07435461708785594</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04372790603195499</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>551185414.9302646</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7027707139.999835</v>
+        <v>2503410878.932304</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002495248685343199</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>14</v>
+        <v>0.1330797253546131</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02256199984106092</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1251705461.039402</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5423150324.07841</v>
+        <v>1813434749.135081</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0040162728091473</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.09409229428293996</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03129477047815218</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>14</v>
+      </c>
+      <c r="J37" t="n">
+        <v>906717376.0367475</v>
       </c>
     </row>
     <row r="38">
@@ -1491,19 +1717,25 @@
         <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3584088747.870914</v>
+        <v>2029027009.028827</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004295688159593383</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1155947738521404</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03279279543837448</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1014513478.91891</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5038336268.760969</v>
+        <v>2172082731.807773</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002538605205827773</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
+        <v>0.140259280199696</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02206054673839711</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1086041334.17888</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7163498204.244511</v>
+        <v>1110448332.480998</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003751898381992913</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>14</v>
+        <v>0.1183387202958167</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05235448787785688</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>555224229.8408313</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7207237482.835709</v>
+        <v>2692171970.571481</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001023268309512423</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>15</v>
+        <v>0.1344704340817978</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03315040185636697</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1346085991.601688</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5672178207.797231</v>
+        <v>4059667497.491246</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005227789391787495</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
+        <v>0.1112559606037505</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04293055246797711</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2029833782.012949</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5641867722.245434</v>
+        <v>2835205167.048029</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004501418508186928</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
+        <v>0.1928552434610257</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02417713439667159</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1417602598.364516</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6497473105.254176</v>
+        <v>1876775671.282835</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002073782033100889</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>14</v>
+        <v>0.06993939161300149</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02865587022829023</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>938387917.2671378</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5542942906.868321</v>
+        <v>1671198500.600101</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001617501740610803</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1665270908733331</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04344348053036744</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>835599207.905674</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>6973411047.520334</v>
+        <v>3685723970.455822</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004839941138830764</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
+        <v>0.1427728008654856</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04869187287468492</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>18</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1842861936.628091</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7968311684.279358</v>
+        <v>3742266672.324573</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002014227983765446</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>7</v>
+        <v>0.1313758424146684</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04875322295327368</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>14</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1871133320.543011</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5682353591.737605</v>
+        <v>2908192204.441869</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003266293050405615</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
+        <v>0.0672225611992132</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0388677191294749</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>17</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1454096199.896072</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5468213930.344848</v>
+        <v>1833979381.788922</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004036862305255659</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1500003365791525</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03896981788813025</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>916989670.8427682</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7829318895.706048</v>
+        <v>2671880571.448841</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002751065173155402</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>14</v>
+        <v>0.1468487225350883</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03501950931928126</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>17</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1335940368.787235</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4008965079.490434</v>
+        <v>1172579104.461896</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00366481548650511</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1742018875624017</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05376405700011905</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>586289608.0898427</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5606669902.809571</v>
+        <v>3567820355.733928</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002013113487043483</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>12</v>
+        <v>0.1032801647129364</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04120353487978751</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>21</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1783910259.662531</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>471</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2855250030.866645</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.132999587165055</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03113496585961395</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="D53" t="n">
-        <v>443</v>
-      </c>
-      <c r="E53" t="n">
-        <v>6034286299.670683</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.002982053904417923</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1427625057.732406</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4960534337.254378</v>
+        <v>3768744151.053463</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004401571102536067</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>13</v>
+        <v>0.1300846289116846</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03453229519403057</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>17</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1884372121.323228</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6095074457.586507</v>
+        <v>4465391387.480813</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002814926749607231</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>16</v>
+        <v>0.1564983759060453</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02322684405313585</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2232695689.029651</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4806303052.430416</v>
+        <v>1264210533.429531</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002300506280153741</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
+        <v>0.1375236801876964</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03718133304138977</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>632105343.7649601</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6073415456.173311</v>
+        <v>3414536691.463171</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003382161769314282</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+        <v>0.1123340111455757</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0179765725976774</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1707268384.814293</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5727475212.532036</v>
+        <v>1396324246.659564</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001999686695825093</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>12</v>
+        <v>0.1391506897198659</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03839221710048737</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>698162163.7870725</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5109033705.689408</v>
+        <v>5110107284.703692</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004125742883668616</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
+        <v>0.0838858510849559</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0369227136001177</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2555053564.63308</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4519940863.924216</v>
+        <v>2761387269.715311</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002866595210279843</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.2061517199836745</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02396085193594284</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1380693680.044946</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5463028139.297179</v>
+        <v>2057891027.982086</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005823531629227921</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>12</v>
+        <v>0.1806764761735984</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02507647773419597</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1028945583.171692</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4827700049.222811</v>
+        <v>1444413979.623162</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002560079439152926</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
+        <v>0.1559069900855782</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03524502259628849</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>722206964.4200004</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8128049147.165543</v>
+        <v>4116619467.967777</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003914839750889063</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>12</v>
+        <v>0.083234629238568</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0366049716607652</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2058309791.037832</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4602114822.452392</v>
+        <v>5134837555.519785</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005054887504581114</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1410225628558023</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03315981826240438</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>16</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2567418893.3071</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5677051942.489883</v>
+        <v>5051594547.447119</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004504263040935496</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>13</v>
+        <v>0.1466959094025793</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02345739457173867</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>18</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2525797229.427186</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6766901914.556987</v>
+        <v>4268528915.075022</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002921358898280472</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>11</v>
+        <v>0.1402950820993695</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04897389142855822</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2134264445.383135</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>4725736983.18058</v>
+        <v>3469314599.198588</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004688110308077184</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.06525659022957286</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.05124862069157496</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>16</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1734657278.03367</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7506128679.538426</v>
+        <v>3954085425.976909</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002480034974579638</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>11</v>
+        <v>0.1603765684051136</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04496618356162696</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>16</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1977042705.868304</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6452835669.652812</v>
+        <v>2163251825.688128</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001006834004648539</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>10</v>
+        <v>0.1599826948170716</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04127346867998517</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1081625938.763903</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7077039469.711537</v>
+        <v>3515658801.309045</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003138688728221143</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13</v>
+        <v>0.08424594580100708</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03442267049156825</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1757829411.039716</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3801115175.82829</v>
+        <v>4862575226.907388</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002992038503307857</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1574219160812146</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02625254798428709</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2431287708.740938</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7186789490.554655</v>
+        <v>2242905843.569807</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001797526722446301</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>11</v>
+        <v>0.06863928959827298</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05171611999270147</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1121452828.797523</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6417156189.817629</v>
+        <v>3589665450.813493</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009883009818741693</v>
-      </c>
-      <c r="G73" t="b">
+        <v>0.0696587114510199</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0450788229010953</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="H73" t="n">
-        <v>11</v>
+      <c r="I73" t="n">
+        <v>19</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1794832667.310437</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6040776126.488635</v>
+        <v>2873671541.730751</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004726109055907071</v>
-      </c>
-      <c r="G74" t="b">
+        <v>0.1154507345010091</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02432294996293389</v>
+      </c>
+      <c r="H74" t="b">
         <v>1</v>
       </c>
-      <c r="H74" t="n">
-        <v>10</v>
+      <c r="I74" t="n">
+        <v>17</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1436835847.009825</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6863900312.669157</v>
+        <v>2483127874.633933</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003405303601893346</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>10</v>
+        <v>0.125530239646031</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02601578486075196</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1241563856.072416</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5976358528.243345</v>
+        <v>3754423387.045616</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002683289990477172</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>10</v>
+        <v>0.08760253859199343</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02504698919084689</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1877211667.818533</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6739307263.607441</v>
+        <v>1556575670.892299</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005820175356463242</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>18</v>
+        <v>0.1310764231493721</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02307156127416877</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>778287831.3432547</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5217715588.243796</v>
+        <v>4185233328.245877</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004254163244108287</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>10</v>
+        <v>0.1029381932943291</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04281174241456423</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>18</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2092616616.442887</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6540087738.741005</v>
+        <v>1351371410.372039</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002036848008605082</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>11</v>
+        <v>0.1444715101550827</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03600764692877971</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>675685713.2782639</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5908488091.11987</v>
+        <v>4751824816.117552</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002253409595022851</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>16</v>
+        <v>0.09430329274438526</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03840469358214268</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2375912444.790866</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6802974257.345348</v>
+        <v>4238914312.306986</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003543234196964576</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>9</v>
+        <v>0.1117307580635201</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02377997824754982</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2119457128.056582</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4808628901.535841</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.2069334030521707</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02416895105935728</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>8734353844.83803</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.004285907920126568</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9</v>
+      <c r="I82" t="n">
+        <v>18</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2404314445.288002</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9087229418.806023</v>
+        <v>1664627510.75141</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003468785478326184</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>14</v>
+        <v>0.1430390163878426</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04392195184751541</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>832313698.8078361</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6846161155.558614</v>
+        <v>1909626521.371062</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005465822373590178</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>13</v>
+        <v>0.08469062835691328</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04576055334738488</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>954813278.7928528</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3947062816.664114</v>
+        <v>2669705107.689433</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002842920470866764</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1475577069922197</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04699544463812056</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1334852577.398446</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6405616783.365297</v>
+        <v>2514759771.768857</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002458544583934851</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1413810215542239</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02140624681665507</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1257379984.974044</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4266162502.025075</v>
+        <v>983388052.1894761</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001210045129201593</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1492666937946052</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0409107089168908</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>491694026.0108145</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8567701899.353194</v>
+        <v>2506785219.821756</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003724209521245637</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>11</v>
+        <v>0.1514853608885716</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03985874959446709</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>20</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1253392591.507094</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7960056950.828053</v>
+        <v>3329588864.35273</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005254808600515413</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>11</v>
+        <v>0.1290747194739654</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0268580150864677</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1664794445.984957</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7210908768.660663</v>
+        <v>1445164087.591597</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003069558280811865</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>9</v>
+        <v>0.0997386119983678</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05076776300538779</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>722582012.3655387</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5935610498.20524</v>
+        <v>1695356196.251305</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004156006814399906</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>15</v>
+        <v>0.1909309742064294</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04225572150464033</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>847678110.8612839</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4875914179.565899</v>
+        <v>2137568618.353792</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003292526624664332</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1058283332612757</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04147862991194913</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1068784265.621102</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6474917101.591147</v>
+        <v>4195254818.074464</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001430005113473</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>18</v>
+        <v>0.1045136683906569</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0368898721530971</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>15</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2097627396.912441</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5148829430.941086</v>
+        <v>1992465583.985497</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001422374929679666</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>16</v>
+        <v>0.1409632232402884</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02612916785689502</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>996232789.2723399</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>433</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2891388870.294746</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.08793465387342585</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04018377154052401</v>
+      </c>
+      <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="D95" t="n">
-        <v>511</v>
-      </c>
-      <c r="E95" t="n">
-        <v>7461446974.53684</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.001877993801935797</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>13</v>
+      <c r="I95" t="n">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1445694442.662269</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7266010678.124313</v>
+        <v>1816141663.997341</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003052371964820394</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>14</v>
+        <v>0.1242335733774231</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03241797147559315</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>908070838.4665413</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7024533133.896003</v>
+        <v>3241484405.606766</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004881392014539666</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>13</v>
+        <v>0.1390704765711179</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02779307562243558</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>16</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1620742198.069595</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7060682181.941128</v>
+        <v>3577573642.451293</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00363069208331752</v>
-      </c>
-      <c r="G98" t="b">
+        <v>0.1196127483142167</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03122713124775269</v>
+      </c>
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="H98" t="n">
-        <v>19</v>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1788786844.97188</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2551686360.161255</v>
+        <v>3255869196.068689</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005529829126372354</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1437238722153987</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02999732611267002</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>15</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1627934602.455179</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4667116367.876273</v>
+        <v>3187278719.389211</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002801861357898711</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1789720230207138</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0173156162528639</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>15</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1593639365.39403</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6448177004.489891</v>
+        <v>3072014883.477036</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001177372353848872</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.1843469376325642</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05061955335089743</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>16</v>
+      <c r="I101" t="n">
+        <v>21</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1536007540.187651</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_51.xlsx
+++ b/output/fit_clients/fit_round_51.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2016963260.170056</v>
+        <v>2216627128.069086</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1069586923589951</v>
+        <v>0.09263086921079312</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04235440563160434</v>
+        <v>0.02787464433714599</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1008481627.882862</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1893990678.122475</v>
+        <v>2155950176.719775</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1645351965259398</v>
+        <v>0.1379829196986509</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04308350350788656</v>
+        <v>0.04512933925282171</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>946995362.5714759</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4459432064.425852</v>
+        <v>4328760668.456889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1133965038619438</v>
+        <v>0.15187360744969</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03140767470482449</v>
+        <v>0.02479089003600535</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2229716078.803172</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3354080367.955377</v>
+        <v>3656377305.253006</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1030247280038356</v>
+        <v>0.1101675798333248</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0459757004250081</v>
+        <v>0.04530572841721769</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1677040230.280621</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2014387547.881901</v>
+        <v>2414555728.060153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1304148453719938</v>
+        <v>0.1125434507384804</v>
       </c>
       <c r="G6" t="n">
-        <v>0.055649796707687</v>
+        <v>0.05335014403826958</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1007193801.825853</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3047972025.883043</v>
+        <v>2909006931.233741</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08169614064457892</v>
+        <v>0.07144954007256051</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04707280664139026</v>
+        <v>0.03187617908408015</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1523985973.09236</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2667728563.935488</v>
+        <v>3077128868.123947</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2143568763050515</v>
+        <v>0.1966735176814806</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03281917384173468</v>
+        <v>0.02821567316381971</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1333864305.413413</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1453336579.295261</v>
+        <v>1783192113.230151</v>
       </c>
       <c r="F9" t="n">
-        <v>0.135904855869692</v>
+        <v>0.1748078849934683</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02970753017075457</v>
+        <v>0.02503360117222641</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>726668391.9987206</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4020889361.306606</v>
+        <v>5257253369.616395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.215373561946858</v>
+        <v>0.1877279401844101</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04306451245101674</v>
+        <v>0.03582012216530881</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2010444704.035937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2853406899.265844</v>
+        <v>3587329125.386599</v>
       </c>
       <c r="F11" t="n">
-        <v>0.142980260629252</v>
+        <v>0.1866612830866115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04943035619004901</v>
+        <v>0.03671774895817472</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1426703382.170674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2118815080.872175</v>
+        <v>2419488274.285036</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1751888291100035</v>
+        <v>0.1403902653340057</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03622698894023423</v>
+        <v>0.03516120159693724</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1059407477.602974</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4736009399.934447</v>
+        <v>4442689202.189923</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07145282038962202</v>
+        <v>0.09680691243380012</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02629437938824967</v>
+        <v>0.02043308602836807</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2368004717.375825</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2682925793.88597</v>
+        <v>2534804262.716759</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1560790154207977</v>
+        <v>0.1736127725165976</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04015853978892481</v>
+        <v>0.04024839079108805</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1341462954.217121</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1385431275.894156</v>
+        <v>1362417507.923302</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08886123627340776</v>
+        <v>0.08008976231110621</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04914162473695072</v>
+        <v>0.03963637044409673</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>692715697.357922</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2869397916.457267</v>
+        <v>2900385028.229698</v>
       </c>
       <c r="F16" t="n">
-        <v>0.113403407074034</v>
+        <v>0.1024579990480388</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0416470659300229</v>
+        <v>0.04417599337197271</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1434698955.902261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3854707796.023471</v>
+        <v>4033005085.720123</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1645503914069158</v>
+        <v>0.1144267868579726</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04887237355764808</v>
+        <v>0.04280710676789471</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1927353939.604805</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3499669182.386691</v>
+        <v>3825934626.612995</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1470490951750322</v>
+        <v>0.1233787085983762</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03241351097829127</v>
+        <v>0.02606160895391836</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>17</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1749834585.12159</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>880496114.9670322</v>
+        <v>925507433.4116848</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1630981509949781</v>
+        <v>0.1788545522485128</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02021419160011462</v>
+        <v>0.02095722503640919</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>440248057.4822404</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1862315691.581573</v>
+        <v>2408249878.254689</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1155472991191728</v>
+        <v>0.1318935847127336</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02291076317709298</v>
+        <v>0.02028304010912394</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>931157886.6659819</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1734170320.810956</v>
+        <v>2726644269.273905</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06625082494363999</v>
+        <v>0.06931060900653273</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02843026445252751</v>
+        <v>0.03514481494795064</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>867085221.6169399</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3772385821.36652</v>
+        <v>3259828275.254194</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08861615683258062</v>
+        <v>0.1181473087843811</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05393954884199272</v>
+        <v>0.05457548612688969</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1886192925.819651</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1337632204.900148</v>
+        <v>1453695903.604822</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1791276367324834</v>
+        <v>0.1701579404429042</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05357985969358433</v>
+        <v>0.042350617562447</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>668816115.6078396</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3860304477.27385</v>
+        <v>2825881024.81303</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1347972979206183</v>
+        <v>0.09259042502618406</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02603568850809949</v>
+        <v>0.02567814156332626</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1930152215.879113</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1352927772.017351</v>
+        <v>960137155.5514249</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1066876209910783</v>
+        <v>0.09307544152312691</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02006056912123579</v>
+        <v>0.02768871953489803</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>676463868.6529044</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1366005577.224596</v>
+        <v>1103290350.402082</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1165038279287019</v>
+        <v>0.1004394619270559</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03893783981556534</v>
+        <v>0.02472631196623672</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>683002850.1585302</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3770510882.394855</v>
+        <v>4720556623.269888</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1419897296838894</v>
+        <v>0.1511252486283483</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01904353834302294</v>
+        <v>0.02344822810076165</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1885255462.614055</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3570564245.080888</v>
+        <v>2683851170.434882</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1441496479922458</v>
+        <v>0.1021222653689438</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0388701831098877</v>
+        <v>0.04769757051842836</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1785282183.161065</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4332384679.803455</v>
+        <v>4632321186.401515</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1253687458849964</v>
+        <v>0.1446801601661968</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03679350376463514</v>
+        <v>0.03430317276322449</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>24</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2166192333.585598</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2368817786.212879</v>
+        <v>1571132804.653624</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1127849463659434</v>
+        <v>0.1331111856421858</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03782489013710431</v>
+        <v>0.0326177419603257</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1184408972.404309</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1085975385.891382</v>
+        <v>1181394476.207787</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0868437557666986</v>
+        <v>0.09454908770718368</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04485012493857404</v>
+        <v>0.05229308395367779</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>542987671.0975764</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1743751119.24456</v>
+        <v>1373166122.349565</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08542393902129955</v>
+        <v>0.1153638877915119</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02975020662901631</v>
+        <v>0.03365060675636854</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>871875678.330683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2460909747.576754</v>
+        <v>2964669557.518068</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1698168274388417</v>
+        <v>0.1564587783343981</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05848417699522088</v>
+        <v>0.0421239875261455</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1230454915.205889</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>966922100.8892877</v>
+        <v>1561949300.697658</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07394896703773242</v>
+        <v>0.11927433735259</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02172960569838171</v>
+        <v>0.02535201437348137</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>483461093.637449</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1102370837.865816</v>
+        <v>1245627555.999619</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07435461708785594</v>
+        <v>0.08666463922951539</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04372790603195499</v>
+        <v>0.03835063336601327</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>551185414.9302646</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2503410878.932304</v>
+        <v>3242024977.777434</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1330797253546131</v>
+        <v>0.1643410154710409</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02256199984106092</v>
+        <v>0.02004810249101214</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1251705461.039402</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1813434749.135081</v>
+        <v>2246500899.720093</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09409229428293996</v>
+        <v>0.09937270029881386</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03129477047815218</v>
+        <v>0.03466593037248195</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>14</v>
-      </c>
-      <c r="J37" t="n">
-        <v>906717376.0367475</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2029027009.028827</v>
+        <v>2156353668.329895</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1155947738521404</v>
+        <v>0.09516006799430732</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03279279543837448</v>
+        <v>0.03622526558313382</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1014513478.91891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2172082731.807773</v>
+        <v>1941740918.156391</v>
       </c>
       <c r="F39" t="n">
-        <v>0.140259280199696</v>
+        <v>0.160224287677164</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02206054673839711</v>
+        <v>0.02295299237687838</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1086041334.17888</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1110448332.480998</v>
+        <v>1172816381.302755</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1183387202958167</v>
+        <v>0.1194663423437066</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05235448787785688</v>
+        <v>0.0498125412352806</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>555224229.8408313</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2692171970.571481</v>
+        <v>2001248338.366421</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1344704340817978</v>
+        <v>0.1544547918128718</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03315040185636697</v>
+        <v>0.02900723616168029</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1346085991.601688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4059667497.491246</v>
+        <v>3753399436.82162</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1112559606037505</v>
+        <v>0.1185513593047551</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04293055246797711</v>
+        <v>0.04437747889628659</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2029833782.012949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2835205167.048029</v>
+        <v>2333364883.557107</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1928552434610257</v>
+        <v>0.1266883603866089</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02417713439667159</v>
+        <v>0.02533258166005994</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>17</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1417602598.364516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1876775671.282835</v>
+        <v>2320699617.438718</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06993939161300149</v>
+        <v>0.1008114095096523</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02865587022829023</v>
+        <v>0.03551272232662454</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>938387917.2671378</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1671198500.600101</v>
+        <v>2278257484.394287</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1665270908733331</v>
+        <v>0.1815490284526847</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04344348053036744</v>
+        <v>0.05283051892072154</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>835599207.905674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3685723970.455822</v>
+        <v>5626541624.945646</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1427728008654856</v>
+        <v>0.1759665458418864</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04869187287468492</v>
+        <v>0.05216227555736483</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>18</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1842861936.628091</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3742266672.324573</v>
+        <v>3193890440.430597</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1313758424146684</v>
+        <v>0.1764117843464742</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04875322295327368</v>
+        <v>0.04686087819704362</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1871133320.543011</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2908192204.441869</v>
+        <v>4209597955.81976</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0672225611992132</v>
+        <v>0.08083152435968198</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0388677191294749</v>
+        <v>0.02914226970514439</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>17</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1454096199.896072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1833979381.788922</v>
+        <v>1786549647.090039</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1500003365791525</v>
+        <v>0.147333220170513</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03896981788813025</v>
+        <v>0.03795678375785261</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>916989670.8427682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2671880571.448841</v>
+        <v>3996371280.244915</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1468487225350883</v>
+        <v>0.1243470351420188</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03501950931928126</v>
+        <v>0.04081757597068331</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>17</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1335940368.787235</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1172579104.461896</v>
+        <v>1499056306.721471</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1742018875624017</v>
+        <v>0.1423546216135046</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05376405700011905</v>
+        <v>0.04324826764412557</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>586289608.0898427</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3567820355.733928</v>
+        <v>4435862581.304001</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1032801647129364</v>
+        <v>0.1334919085736494</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04120353487978751</v>
+        <v>0.03763123713534124</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>21</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1783910259.662531</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2855250030.866645</v>
+        <v>3132637201.954288</v>
       </c>
       <c r="F53" t="n">
-        <v>0.132999587165055</v>
+        <v>0.1339890774221179</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03113496585961395</v>
+        <v>0.03487311682262222</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1427625057.732406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3768744151.053463</v>
+        <v>3880417797.01467</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1300846289116846</v>
+        <v>0.1558336829351313</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03453229519403057</v>
+        <v>0.05312102327499479</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>17</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1884372121.323228</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4465391387.480813</v>
+        <v>3348858818.914336</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1564983759060453</v>
+        <v>0.186625659576967</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02322684405313585</v>
+        <v>0.02283685128131708</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2232695689.029651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1264210533.429531</v>
+        <v>1778622586.437804</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1375236801876964</v>
+        <v>0.1019250028686457</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03718133304138977</v>
+        <v>0.04114076450470797</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>632105343.7649601</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3414536691.463171</v>
+        <v>3366792137.205256</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1123340111455757</v>
+        <v>0.1313639097920133</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0179765725976774</v>
+        <v>0.01960467441674018</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>16</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1707268384.814293</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1396324246.659564</v>
+        <v>1403734722.114544</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1391506897198659</v>
+        <v>0.1601267822070005</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03839221710048737</v>
+        <v>0.02485927703224137</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>698162163.7870725</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5110107284.703692</v>
+        <v>4049376194.367424</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0838858510849559</v>
+        <v>0.1288895431673751</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0369227136001177</v>
+        <v>0.04126073198095243</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>14</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2555053564.63308</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2761387269.715311</v>
+        <v>2403229191.218897</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2061517199836745</v>
+        <v>0.1796808545676046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02396085193594284</v>
+        <v>0.03085485740158059</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>16</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1380693680.044946</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2057891027.982086</v>
+        <v>2133033597.689255</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1806764761735984</v>
+        <v>0.1606176158932294</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02507647773419597</v>
+        <v>0.02104338862230445</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1028945583.171692</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1444413979.623162</v>
+        <v>2008370666.971459</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1559069900855782</v>
+        <v>0.1401958008091506</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03524502259628849</v>
+        <v>0.03666559364329672</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>722206964.4200004</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4116619467.967777</v>
+        <v>5599329779.677917</v>
       </c>
       <c r="F63" t="n">
-        <v>0.083234629238568</v>
+        <v>0.1029964755016319</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0366049716607652</v>
+        <v>0.03682273723421438</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>14</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2058309791.037832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5134837555.519785</v>
+        <v>3747087511.279377</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1410225628558023</v>
+        <v>0.1242340812301239</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03315981826240438</v>
+        <v>0.03296558960227635</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2567418893.3071</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5051594547.447119</v>
+        <v>4048274113.230242</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1466959094025793</v>
+        <v>0.12463685403231</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02345739457173867</v>
+        <v>0.02719195082051457</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>18</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2525797229.427186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4268528915.075022</v>
+        <v>4694628705.297703</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1402950820993695</v>
+        <v>0.1549939875690216</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04897389142855822</v>
+        <v>0.0463078450422233</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2134264445.383135</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3469314599.198588</v>
+        <v>2900488208.180495</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06525659022957286</v>
+        <v>0.07472834662902084</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05124862069157496</v>
+        <v>0.03118109259717596</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>16</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1734657278.03367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3954085425.976909</v>
+        <v>4564886363.318063</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1603765684051136</v>
+        <v>0.1256191151725048</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04496618356162696</v>
+        <v>0.0377507166214691</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>16</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1977042705.868304</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2163251825.688128</v>
+        <v>2301791441.774997</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1599826948170716</v>
+        <v>0.1320144362880842</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04127346867998517</v>
+        <v>0.04940672082158889</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1081625938.763903</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3515658801.309045</v>
+        <v>2618408194.249235</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08424594580100708</v>
+        <v>0.07425086034000272</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03442267049156825</v>
+        <v>0.03274946812095457</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1757829411.039716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4862575226.907388</v>
+        <v>5533960722.258858</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1574219160812146</v>
+        <v>0.130189822807419</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02625254798428709</v>
+        <v>0.02266447841771922</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>19</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2431287708.740938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2242905843.569807</v>
+        <v>1588311112.616616</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06863928959827298</v>
+        <v>0.07814869264781754</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05171611999270147</v>
+        <v>0.03403185923696588</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1121452828.797523</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3589665450.813493</v>
+        <v>2175596525.2252</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0696587114510199</v>
+        <v>0.1027890644928986</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0450788229010953</v>
+        <v>0.04640731803910781</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>19</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1794832667.310437</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2873671541.730751</v>
+        <v>3722545685.466816</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1154507345010091</v>
+        <v>0.1213376415092949</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02432294996293389</v>
+        <v>0.02235271191621833</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1436835847.009825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2483127874.633933</v>
+        <v>2100306857.252572</v>
       </c>
       <c r="F75" t="n">
-        <v>0.125530239646031</v>
+        <v>0.1371431125498231</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02601578486075196</v>
+        <v>0.03444124642595817</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1241563856.072416</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3754423387.045616</v>
+        <v>3386727869.020196</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08760253859199343</v>
+        <v>0.104973670006566</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02504698919084689</v>
+        <v>0.02780330617314359</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1877211667.818533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1556575670.892299</v>
+        <v>1404189145.691595</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1310764231493721</v>
+        <v>0.1461885297717576</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02307156127416877</v>
+        <v>0.02570297392174489</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>778287831.3432547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4185233328.245877</v>
+        <v>3502128242.763451</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1029381932943291</v>
+        <v>0.08772209014811513</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04281174241456423</v>
+        <v>0.03522128568570159</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>18</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2092616616.442887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1351371410.372039</v>
+        <v>1473713935.716776</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1444715101550827</v>
+        <v>0.1612262499952153</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03600764692877971</v>
+        <v>0.03494706475141478</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>675685713.2782639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4751824816.117552</v>
+        <v>5485527918.364348</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09430329274438526</v>
+        <v>0.07092843518253795</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03840469358214268</v>
+        <v>0.03835689182422696</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>10</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2375912444.790866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4238914312.306986</v>
+        <v>3392763973.554214</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1117307580635201</v>
+        <v>0.1056497201555681</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02377997824754982</v>
+        <v>0.0243220941924503</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2119457128.056582</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4808628901.535841</v>
+        <v>3638634825.691199</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2069334030521707</v>
+        <v>0.1998312187738645</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02416895105935728</v>
+        <v>0.02476218566952698</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>18</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2404314445.288002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1664627510.75141</v>
+        <v>2001373703.723124</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1430390163878426</v>
+        <v>0.1494075711210366</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04392195184751541</v>
+        <v>0.04378518323885742</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>832313698.8078361</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1909626521.371062</v>
+        <v>1853909272.986181</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08469062835691328</v>
+        <v>0.08146933908713999</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04576055334738488</v>
+        <v>0.03758729380533976</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>954813278.7928528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2669705107.689433</v>
+        <v>2536256113.647736</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1475577069922197</v>
+        <v>0.1351210419891549</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04699544463812056</v>
+        <v>0.04830283028526881</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>19</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1334852577.398446</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2514759771.768857</v>
+        <v>2294110515.060895</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1413810215542239</v>
+        <v>0.1447864701639985</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02140624681665507</v>
+        <v>0.02069423625355212</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1257379984.974044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>983388052.1894761</v>
+        <v>1197550290.361815</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1492666937946052</v>
+        <v>0.1423383042613764</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0409107089168908</v>
+        <v>0.04353884501921811</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>491694026.0108145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2506785219.821756</v>
+        <v>2988681958.320955</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1514853608885716</v>
+        <v>0.159762009190857</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03985874959446709</v>
+        <v>0.03883690732493645</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>20</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1253392591.507094</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3329588864.35273</v>
+        <v>3385576017.845541</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1290747194739654</v>
+        <v>0.1010930731194781</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0268580150864677</v>
+        <v>0.0364632635801807</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>17</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1664794445.984957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1445164087.591597</v>
+        <v>2003364160.675864</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0997386119983678</v>
+        <v>0.109580769175293</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05076776300538779</v>
+        <v>0.0467956587537973</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>722582012.3655387</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1695356196.251305</v>
+        <v>1712956452.022596</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1909309742064294</v>
+        <v>0.1960297061876017</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04225572150464033</v>
+        <v>0.03891261854107251</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>847678110.8612839</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2137568618.353792</v>
+        <v>2702882578.159436</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1058283332612757</v>
+        <v>0.06710412952279984</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04147862991194913</v>
+        <v>0.04561291645244697</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1068784265.621102</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4195254818.074464</v>
+        <v>4231809387.913085</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1045136683906569</v>
+        <v>0.08920565917880766</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0368898721530971</v>
+        <v>0.05125533118524081</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>15</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2097627396.912441</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1992465583.985497</v>
+        <v>1808156932.59815</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1409632232402884</v>
+        <v>0.1675505025326921</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02612916785689502</v>
+        <v>0.02902690801367473</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>996232789.2723399</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2891388870.294746</v>
+        <v>2599734056.902406</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08793465387342585</v>
+        <v>0.0965558905228209</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04018377154052401</v>
+        <v>0.03547850493883736</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1445694442.662269</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1816141663.997341</v>
+        <v>1859375447.444277</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1242335733774231</v>
+        <v>0.09136794809189031</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03241797147559315</v>
+        <v>0.03350848412716925</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>908070838.4665413</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3241484405.606766</v>
+        <v>3905788126.409432</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1390704765711179</v>
+        <v>0.1704588711968637</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02779307562243558</v>
+        <v>0.02185523675383093</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1620742198.069595</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3577573642.451293</v>
+        <v>3363862977.494093</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1196127483142167</v>
+        <v>0.1246971673731557</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03122713124775269</v>
+        <v>0.02760790480456084</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1788786844.97188</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3255869196.068689</v>
+        <v>3006389852.102514</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1437238722153987</v>
+        <v>0.1322647696036426</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02999732611267002</v>
+        <v>0.02609142158504359</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>15</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1627934602.455179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3187278719.389211</v>
+        <v>4428621562.571166</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1789720230207138</v>
+        <v>0.1368659761110615</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0173156162528639</v>
+        <v>0.01988575625046914</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1593639365.39403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3072014883.477036</v>
+        <v>3409555069.505798</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1843469376325642</v>
+        <v>0.1850154873042839</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05061955335089743</v>
+        <v>0.05451597210470244</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>21</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1536007540.187651</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_51.xlsx
+++ b/output/fit_clients/fit_round_51.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2216627128.069086</v>
+        <v>1908725875.320728</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09263086921079312</v>
+        <v>0.1013571955644409</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02787464433714599</v>
+        <v>0.04380151306897218</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2155950176.719775</v>
+        <v>2505015968.956362</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1379829196986509</v>
+        <v>0.161103259468529</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04512933925282171</v>
+        <v>0.03290723616882262</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4328760668.456889</v>
+        <v>4540479912.212552</v>
       </c>
       <c r="F4" t="n">
-        <v>0.15187360744969</v>
+        <v>0.1627321056976933</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02479089003600535</v>
+        <v>0.03177167488221116</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3656377305.253006</v>
+        <v>3523193396.245115</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1101675798333248</v>
+        <v>0.1093018943594666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04530572841721769</v>
+        <v>0.0389963045643098</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2414555728.060153</v>
+        <v>2314912774.508096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1125434507384804</v>
+        <v>0.09880669303040629</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05335014403826958</v>
+        <v>0.0522305408981902</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2909006931.233741</v>
+        <v>2094366531.277106</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07144954007256051</v>
+        <v>0.06663059611591021</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03187617908408015</v>
+        <v>0.03851310172278029</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3077128868.123947</v>
+        <v>3714460838.132064</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1966735176814806</v>
+        <v>0.2046668766831514</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02821567316381971</v>
+        <v>0.03126859495759563</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1783192113.230151</v>
+        <v>1828642607.672413</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1748078849934683</v>
+        <v>0.1412117861292627</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02503360117222641</v>
+        <v>0.02955726843752658</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5257253369.616395</v>
+        <v>4560973147.132626</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1877279401844101</v>
+        <v>0.1736511724998852</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03582012216530881</v>
+        <v>0.04763600243677146</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3587329125.386599</v>
+        <v>3056010460.421931</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1866612830866115</v>
+        <v>0.1612341122565394</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03671774895817472</v>
+        <v>0.03830577976900346</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2419488274.285036</v>
+        <v>2287340941.761784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1403902653340057</v>
+        <v>0.1528924277670845</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03516120159693724</v>
+        <v>0.0507243350582719</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4442689202.189923</v>
+        <v>3443543724.208366</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09680691243380012</v>
+        <v>0.09087733475651003</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02043308602836807</v>
+        <v>0.02825948045117195</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2534804262.716759</v>
+        <v>3144985809.470353</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1736127725165976</v>
+        <v>0.169742868118676</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04024839079108805</v>
+        <v>0.04138927792077386</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1362417507.923302</v>
+        <v>1542339165.931802</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08008976231110621</v>
+        <v>0.09456547893690764</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03963637044409673</v>
+        <v>0.04347006281931243</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2900385028.229698</v>
+        <v>1769951385.645083</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1024579990480388</v>
+        <v>0.08409600126015342</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04417599337197271</v>
+        <v>0.05070208686407102</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4033005085.720123</v>
+        <v>4914683632.867191</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1144267868579726</v>
+        <v>0.15044113090432</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04280710676789471</v>
+        <v>0.04967937472968977</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3825934626.612995</v>
+        <v>3697761000.111382</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1233787085983762</v>
+        <v>0.1247874232392123</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02606160895391836</v>
+        <v>0.02893788320440972</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>925507433.4116848</v>
+        <v>1114965643.831409</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1788545522485128</v>
+        <v>0.1723551715869162</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02095722503640919</v>
+        <v>0.02174236695189762</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2408249878.254689</v>
+        <v>1737202780.770153</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1318935847127336</v>
+        <v>0.1025492652971049</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02028304010912394</v>
+        <v>0.02419560968319942</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2726644269.273905</v>
+        <v>2683894786.290772</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06931060900653273</v>
+        <v>0.08930159139382296</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03514481494795064</v>
+        <v>0.03188141575251321</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3259828275.254194</v>
+        <v>3163812239.58143</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1181473087843811</v>
+        <v>0.1329474083343183</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05457548612688969</v>
+        <v>0.0573243074104897</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1453695903.604822</v>
+        <v>1262123754.908976</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1701579404429042</v>
+        <v>0.16061960680117</v>
       </c>
       <c r="G23" t="n">
-        <v>0.042350617562447</v>
+        <v>0.03915682216016459</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2825881024.81303</v>
+        <v>2570765137.659039</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09259042502618406</v>
+        <v>0.1275194447900324</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02567814156332626</v>
+        <v>0.03661368432239964</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>960137155.5514249</v>
+        <v>998571461.1494496</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09307544152312691</v>
+        <v>0.1207613176606916</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02768871953489803</v>
+        <v>0.02990261685104364</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1103290350.402082</v>
+        <v>1364608644.049144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1004394619270559</v>
+        <v>0.109906665056952</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02472631196623672</v>
+        <v>0.03008390030128628</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4720556623.269888</v>
+        <v>3202894670.855422</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1511252486283483</v>
+        <v>0.1531366679269348</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02344822810076165</v>
+        <v>0.02194201685660528</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2683851170.434882</v>
+        <v>3645771189.837269</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1021222653689438</v>
+        <v>0.1209612917473886</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04769757051842836</v>
+        <v>0.03639442110571987</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4632321186.401515</v>
+        <v>4043112144.031251</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1446801601661968</v>
+        <v>0.1302858599742038</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03430317276322449</v>
+        <v>0.03422793095420516</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1571132804.653624</v>
+        <v>2196599816.132982</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1331111856421858</v>
+        <v>0.1200924691600811</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0326177419603257</v>
+        <v>0.02536103306579326</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1181394476.207787</v>
+        <v>1353409037.210909</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09454908770718368</v>
+        <v>0.09080976371893176</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05229308395367779</v>
+        <v>0.03555175645787193</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1373166122.349565</v>
+        <v>1468098909.773757</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1153638877915119</v>
+        <v>0.1174116954708257</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03365060675636854</v>
+        <v>0.03715116496248276</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2964669557.518068</v>
+        <v>2017291766.741029</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1564587783343981</v>
+        <v>0.1462513522811086</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0421239875261455</v>
+        <v>0.05091576735348698</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1561949300.697658</v>
+        <v>1291944919.395065</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11927433735259</v>
+        <v>0.1073323652887168</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02535201437348137</v>
+        <v>0.02534307093677066</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1245627555.999619</v>
+        <v>868741551.9065965</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08666463922951539</v>
+        <v>0.08055928410740998</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03835063336601327</v>
+        <v>0.02732530675645336</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3242024977.777434</v>
+        <v>3014389442.487472</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1643410154710409</v>
+        <v>0.1356221788150542</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02004810249101214</v>
+        <v>0.02719241659010736</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2246500899.720093</v>
+        <v>2773875252.864951</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09937270029881386</v>
+        <v>0.08084743039976351</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03466593037248195</v>
+        <v>0.03316668818860299</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2156353668.329895</v>
+        <v>1523222613.396275</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09516006799430732</v>
+        <v>0.07822496671772063</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03622526558313382</v>
+        <v>0.02691545334795986</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1941740918.156391</v>
+        <v>1851371062.04014</v>
       </c>
       <c r="F39" t="n">
-        <v>0.160224287677164</v>
+        <v>0.1817022143055186</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02295299237687838</v>
+        <v>0.02778917522148834</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1172816381.302755</v>
+        <v>1410074715.964372</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1194663423437066</v>
+        <v>0.1415761810026265</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0498125412352806</v>
+        <v>0.04662377656879176</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2001248338.366421</v>
+        <v>2894341211.185749</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1544547918128718</v>
+        <v>0.1419640801289853</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02900723616168029</v>
+        <v>0.04384362976645842</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3753399436.82162</v>
+        <v>3132009231.010762</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1185513593047551</v>
+        <v>0.1254389737091553</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04437747889628659</v>
+        <v>0.0375062651650702</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2333364883.557107</v>
+        <v>3045660096.488481</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1266883603866089</v>
+        <v>0.1738099735792623</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02533258166005994</v>
+        <v>0.01987682177811882</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2320699617.438718</v>
+        <v>1708374934.316326</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1008114095096523</v>
+        <v>0.09618787202783916</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03551272232662454</v>
+        <v>0.02257879156113792</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2278257484.394287</v>
+        <v>1617391667.510768</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1815490284526847</v>
+        <v>0.1696013770604951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05283051892072154</v>
+        <v>0.05478977198696566</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5626541624.945646</v>
+        <v>4742515625.87782</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1759665458418864</v>
+        <v>0.163294112545529</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05216227555736483</v>
+        <v>0.04433134026651047</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3193890440.430597</v>
+        <v>4241272084.927475</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1764117843464742</v>
+        <v>0.1251693712380665</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04686087819704362</v>
+        <v>0.04914202245029129</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4209597955.81976</v>
+        <v>4020571579.119619</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08083152435968198</v>
+        <v>0.072222186700987</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02914226970514439</v>
+        <v>0.03459646726745429</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1786549647.090039</v>
+        <v>1808172259.339984</v>
       </c>
       <c r="F49" t="n">
-        <v>0.147333220170513</v>
+        <v>0.1616465687425364</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03795678375785261</v>
+        <v>0.04156089356709034</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3996371280.244915</v>
+        <v>2860336997.185683</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1243470351420188</v>
+        <v>0.1261564288617875</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04081757597068331</v>
+        <v>0.03380972126987767</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1499056306.721471</v>
+        <v>1027887248.885996</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1423546216135046</v>
+        <v>0.1521236840330281</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04324826764412557</v>
+        <v>0.05150877500351068</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4435862581.304001</v>
+        <v>4256455413.409637</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1334919085736494</v>
+        <v>0.1134234060264506</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03763123713534124</v>
+        <v>0.05622856782115345</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3132637201.954288</v>
+        <v>3128393237.164866</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1339890774221179</v>
+        <v>0.1714054326681334</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03487311682262222</v>
+        <v>0.03398472041874687</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3880417797.01467</v>
+        <v>4490379259.475147</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1558336829351313</v>
+        <v>0.1552968117511374</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05312102327499479</v>
+        <v>0.0524065564106171</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3348858818.914336</v>
+        <v>3399310914.934661</v>
       </c>
       <c r="F55" t="n">
-        <v>0.186625659576967</v>
+        <v>0.1350768743488941</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02283685128131708</v>
+        <v>0.02875824525001647</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1778622586.437804</v>
+        <v>1451249347.550184</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1019250028686457</v>
+        <v>0.1264922363985571</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04114076450470797</v>
+        <v>0.05699352714076474</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3366792137.205256</v>
+        <v>3578884038.8667</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1313639097920133</v>
+        <v>0.1347172771851946</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01960467441674018</v>
+        <v>0.01763269261384698</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1403734722.114544</v>
+        <v>1168248748.945374</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1601267822070005</v>
+        <v>0.1377267888171751</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02485927703224137</v>
+        <v>0.03367892391911687</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4049376194.367424</v>
+        <v>4914624903.972548</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1288895431673751</v>
+        <v>0.1257674507033487</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04126073198095243</v>
+        <v>0.04994695454863748</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2403229191.218897</v>
+        <v>2930111831.875788</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1796808545676046</v>
+        <v>0.1279832025155713</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03085485740158059</v>
+        <v>0.03087655531323292</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2133033597.689255</v>
+        <v>2424811201.559552</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1606176158932294</v>
+        <v>0.1691404073026914</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02104338862230445</v>
+        <v>0.03257590705629793</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2008370666.971459</v>
+        <v>2006288460.283242</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1401958008091506</v>
+        <v>0.148447253972026</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03666559364329672</v>
+        <v>0.03605787599650582</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5599329779.677917</v>
+        <v>3600783273.074441</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1029964755016319</v>
+        <v>0.1031586325695074</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03682273723421438</v>
+        <v>0.03510066990063394</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3747087511.279377</v>
+        <v>3522843335.020612</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1242340812301239</v>
+        <v>0.1158143089793141</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03296558960227635</v>
+        <v>0.02788594457725549</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4048274113.230242</v>
+        <v>5086023583.394056</v>
       </c>
       <c r="F65" t="n">
-        <v>0.12463685403231</v>
+        <v>0.1224857647941827</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02719195082051457</v>
+        <v>0.02895240780457534</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4694628705.297703</v>
+        <v>4193762048.414045</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1549939875690216</v>
+        <v>0.1591306928903981</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0463078450422233</v>
+        <v>0.0346386787113736</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2900488208.180495</v>
+        <v>2433656470.980548</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07472834662902084</v>
+        <v>0.08970467409404462</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03118109259717596</v>
+        <v>0.03916357599245879</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4564886363.318063</v>
+        <v>3696591916.522049</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1256191151725048</v>
+        <v>0.1098191229217762</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0377507166214691</v>
+        <v>0.04954680200582824</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2301791441.774997</v>
+        <v>1830403951.517286</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1320144362880842</v>
+        <v>0.1275904057981798</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04940672082158889</v>
+        <v>0.04983533530074093</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2618408194.249235</v>
+        <v>3255293135.090867</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07425086034000272</v>
+        <v>0.07460020843528063</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03274946812095457</v>
+        <v>0.04289842531007228</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5533960722.258858</v>
+        <v>4632320834.592346</v>
       </c>
       <c r="F71" t="n">
-        <v>0.130189822807419</v>
+        <v>0.1257628165859104</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02266447841771922</v>
+        <v>0.03273728954915905</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1588311112.616616</v>
+        <v>1780569623.881554</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07814869264781754</v>
+        <v>0.09621118251905196</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03403185923696588</v>
+        <v>0.03695382741894866</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2175596525.2252</v>
+        <v>2309345702.812736</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1027890644928986</v>
+        <v>0.07288443464422535</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04640731803910781</v>
+        <v>0.05155689542868123</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3722545685.466816</v>
+        <v>3403267464.569995</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1213376415092949</v>
+        <v>0.1321106896428509</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02235271191621833</v>
+        <v>0.02311918878940344</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2100306857.252572</v>
+        <v>1651954337.034369</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1371431125498231</v>
+        <v>0.1127165102442641</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03444124642595817</v>
+        <v>0.03014049579060992</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3386727869.020196</v>
+        <v>4653517375.714808</v>
       </c>
       <c r="F76" t="n">
-        <v>0.104973670006566</v>
+        <v>0.1060885931029441</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02780330617314359</v>
+        <v>0.0248761262854882</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1404189145.691595</v>
+        <v>2294547966.829135</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1461885297717576</v>
+        <v>0.1558109437075752</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02570297392174489</v>
+        <v>0.02559059322951375</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3502128242.763451</v>
+        <v>3968410098.426162</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08772209014811513</v>
+        <v>0.102830679554081</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03522128568570159</v>
+        <v>0.04373700637385156</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1473713935.716776</v>
+        <v>1531407378.682575</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1612262499952153</v>
+        <v>0.1498729738287709</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03494706475141478</v>
+        <v>0.03424536068592349</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5485527918.364348</v>
+        <v>3895248124.692515</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07092843518253795</v>
+        <v>0.06773277545723953</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03835689182422696</v>
+        <v>0.02447804962602747</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3392763973.554214</v>
+        <v>4132565766.571198</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1056497201555681</v>
+        <v>0.1298094979026995</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0243220941924503</v>
+        <v>0.02766222181781652</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3638634825.691199</v>
+        <v>4210765199.06383</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1998312187738645</v>
+        <v>0.14486841858758</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02476218566952698</v>
+        <v>0.02681690545910343</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2001373703.723124</v>
+        <v>1970761965.217041</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1494075711210366</v>
+        <v>0.1579745528337683</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04378518323885742</v>
+        <v>0.02866493638007031</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1853909272.986181</v>
+        <v>2191927874.789053</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08146933908713999</v>
+        <v>0.1011199275074913</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03758729380533976</v>
+        <v>0.04149912985278775</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2536256113.647736</v>
+        <v>2247882335.378959</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1351210419891549</v>
+        <v>0.1460612995125133</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04830283028526881</v>
+        <v>0.04406056192410298</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2294110515.060895</v>
+        <v>2191798225.10931</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1447864701639985</v>
+        <v>0.1175701603141464</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02069423625355212</v>
+        <v>0.02489874106508914</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1197550290.361815</v>
+        <v>1188565150.577102</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1423383042613764</v>
+        <v>0.1710722416584519</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04353884501921811</v>
+        <v>0.03070083356820802</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2988681958.320955</v>
+        <v>2249462954.492661</v>
       </c>
       <c r="F88" t="n">
-        <v>0.159762009190857</v>
+        <v>0.1153091077994091</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03883690732493645</v>
+        <v>0.02672608889683227</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3385576017.845541</v>
+        <v>2828551681.81047</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1010930731194781</v>
+        <v>0.1350396137446416</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0364632635801807</v>
+        <v>0.03465678869015924</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2003364160.675864</v>
+        <v>1858443189.620714</v>
       </c>
       <c r="F90" t="n">
-        <v>0.109580769175293</v>
+        <v>0.1057111308566706</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0467956587537973</v>
+        <v>0.04514968858090151</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1712956452.022596</v>
+        <v>1474582428.595972</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1960297061876017</v>
+        <v>0.1193929216322213</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03891261854107251</v>
+        <v>0.03947755153771352</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2702882578.159436</v>
+        <v>1928142469.688688</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06710412952279984</v>
+        <v>0.06939990490098023</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04561291645244697</v>
+        <v>0.04411904815728213</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4231809387.913085</v>
+        <v>4620109533.280304</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08920565917880766</v>
+        <v>0.1020803524256462</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05125533118524081</v>
+        <v>0.03824095742917175</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1808156932.59815</v>
+        <v>2503930086.542976</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1675505025326921</v>
+        <v>0.1445558574579462</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02902690801367473</v>
+        <v>0.02883781282798816</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2599734056.902406</v>
+        <v>2710270582.30126</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0965558905228209</v>
+        <v>0.1363669150981942</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03547850493883736</v>
+        <v>0.05115868604129296</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1859375447.444277</v>
+        <v>1843546237.35774</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09136794809189031</v>
+        <v>0.1119868247191703</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03350848412716925</v>
+        <v>0.04338596291127203</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3905788126.409432</v>
+        <v>3561155270.633154</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1704588711968637</v>
+        <v>0.1723636949902827</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02185523675383093</v>
+        <v>0.01882804434326053</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3363862977.494093</v>
+        <v>2619804870.207043</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1246971673731557</v>
+        <v>0.1060751093884679</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02760790480456084</v>
+        <v>0.02891935246058061</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3006389852.102514</v>
+        <v>2749673563.423232</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1322647696036426</v>
+        <v>0.1086776179440644</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02609142158504359</v>
+        <v>0.03415669360163993</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4428621562.571166</v>
+        <v>3952582788.059816</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1368659761110615</v>
+        <v>0.12546964955227</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01988575625046914</v>
+        <v>0.02229267553214306</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3409555069.505798</v>
+        <v>3519378330.135406</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1850154873042839</v>
+        <v>0.168662177137744</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05451597210470244</v>
+        <v>0.04206001999529068</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_51.xlsx
+++ b/output/fit_clients/fit_round_51.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1908725875.320728</v>
+        <v>2471102758.215526</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1013571955644409</v>
+        <v>0.1129081681066186</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04380151306897218</v>
+        <v>0.04532426798177411</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2505015968.956362</v>
+        <v>1988261594.2367</v>
       </c>
       <c r="F3" t="n">
-        <v>0.161103259468529</v>
+        <v>0.1791527996146999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03290723616882262</v>
+        <v>0.0355562987388568</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4540479912.212552</v>
+        <v>5085780082.132442</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1627321056976933</v>
+        <v>0.1450093559745241</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03177167488221116</v>
+        <v>0.03464084830218965</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50</v>
+      </c>
+      <c r="K4" t="n">
+        <v>206.9821784714371</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3523193396.245115</v>
+        <v>3910823467.531284</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1093018943594666</v>
+        <v>0.0719100662664339</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0389963045643098</v>
+        <v>0.03703282563941979</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>51</v>
+      </c>
+      <c r="K5" t="n">
+        <v>217.2419940484485</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2314912774.508096</v>
+        <v>2482895424.027705</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09880669303040629</v>
+        <v>0.1270036120865925</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0522305408981902</v>
+        <v>0.04238273257513823</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2094366531.277106</v>
+        <v>2498881080.546658</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06663059611591021</v>
+        <v>0.1012167609691982</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03851310172278029</v>
+        <v>0.04191824760524873</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3714460838.132064</v>
+        <v>2922291078.216289</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2046668766831514</v>
+        <v>0.1579269006705811</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03126859495759563</v>
+        <v>0.02510170175305293</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1828642607.672413</v>
+        <v>2136321852.673516</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1412117861292627</v>
+        <v>0.1424651275516061</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02955726843752658</v>
+        <v>0.03659585260604017</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4560973147.132626</v>
+        <v>4157757356.246926</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1736511724998852</v>
+        <v>0.2066816369143187</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04763600243677146</v>
+        <v>0.03655353881961111</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>47</v>
+      </c>
+      <c r="J10" t="n">
+        <v>51</v>
+      </c>
+      <c r="K10" t="n">
+        <v>230.1067615174066</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3056010460.421931</v>
+        <v>3862284719.184271</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1612341122565394</v>
+        <v>0.1507279483148125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03830577976900346</v>
+        <v>0.04549426417334011</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>51</v>
+      </c>
+      <c r="K11" t="n">
+        <v>221.2874426052921</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2287340941.761784</v>
+        <v>2997507485.082111</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1528924277670845</v>
+        <v>0.1272185703985452</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0507243350582719</v>
+        <v>0.04695136615831019</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3443543724.208366</v>
+        <v>5287232969.054067</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09087733475651003</v>
+        <v>0.066220683554678</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02825948045117195</v>
+        <v>0.02466440255809015</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>51</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3144985809.470353</v>
+        <v>3876101678.961611</v>
       </c>
       <c r="F14" t="n">
-        <v>0.169742868118676</v>
+        <v>0.1721187056581142</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04138927792077386</v>
+        <v>0.03241989292281786</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>51</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1542339165.931802</v>
+        <v>1137338696.845719</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09456547893690764</v>
+        <v>0.1087385830380828</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04347006281931243</v>
+        <v>0.04752832892110064</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1769951385.645083</v>
+        <v>2296225696.639781</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08409600126015342</v>
+        <v>0.08661189593034319</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05070208686407102</v>
+        <v>0.03363345482947433</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4914683632.867191</v>
+        <v>3831424485.314657</v>
       </c>
       <c r="F17" t="n">
-        <v>0.15044113090432</v>
+        <v>0.15360195372886</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04967937472968977</v>
+        <v>0.0411768182400315</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>51</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3697761000.111382</v>
+        <v>3511500902.033183</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1247874232392123</v>
+        <v>0.1783659586800658</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02893788320440972</v>
+        <v>0.02833565936960926</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>49</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1114965643.831409</v>
+        <v>989206921.5875874</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1723551715869162</v>
+        <v>0.1829167906494891</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02174236695189762</v>
+        <v>0.01845496595232771</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1737202780.770153</v>
+        <v>2512451146.908221</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1025492652971049</v>
+        <v>0.1061317900918427</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02419560968319942</v>
+        <v>0.02730209139796362</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2683894786.290772</v>
+        <v>2172415088.3292</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08930159139382296</v>
+        <v>0.10215455861921</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03188141575251321</v>
+        <v>0.02857458678827091</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3163812239.58143</v>
+        <v>3558946852.115745</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1329474083343183</v>
+        <v>0.09562147051485438</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0573243074104897</v>
+        <v>0.04786225072381126</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1262123754.908976</v>
+        <v>1507493020.727814</v>
       </c>
       <c r="F23" t="n">
-        <v>0.16061960680117</v>
+        <v>0.1700824136467758</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03915682216016459</v>
+        <v>0.05112378336027847</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2570765137.659039</v>
+        <v>3627169448.896494</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1275194447900324</v>
+        <v>0.124849675482838</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03661368432239964</v>
+        <v>0.03738984503316939</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>14</v>
+      </c>
+      <c r="J24" t="n">
+        <v>51</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>998571461.1494496</v>
+        <v>1145160245.682133</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1207613176606916</v>
+        <v>0.1211951019806156</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02990261685104364</v>
+        <v>0.02863781506780175</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1364608644.049144</v>
+        <v>896869690.5103735</v>
       </c>
       <c r="F26" t="n">
-        <v>0.109906665056952</v>
+        <v>0.09375102824165352</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03008390030128628</v>
+        <v>0.02655355033861381</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3202894670.855422</v>
+        <v>4596490602.338756</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1531366679269348</v>
+        <v>0.1240345458479625</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02194201685660528</v>
+        <v>0.02422656480827776</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>51</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3645771189.837269</v>
+        <v>3859502584.063917</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1209612917473886</v>
+        <v>0.1018560896743588</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03639442110571987</v>
+        <v>0.03759060751628743</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>51</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4043112144.031251</v>
+        <v>4471016077.950684</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1302858599742038</v>
+        <v>0.1349615259553181</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03422793095420516</v>
+        <v>0.04061583585813161</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>46</v>
+      </c>
+      <c r="J29" t="n">
+        <v>51</v>
+      </c>
+      <c r="K29" t="n">
+        <v>235.6265467705332</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2196599816.132982</v>
+        <v>1893388839.14062</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1200924691600811</v>
+        <v>0.09828513055110755</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02536103306579326</v>
+        <v>0.02817407130562065</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1353409037.210909</v>
+        <v>1344693987.987826</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09080976371893176</v>
+        <v>0.1056788510573902</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03555175645787193</v>
+        <v>0.04565196337601104</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1468098909.773757</v>
+        <v>1161269083.700467</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1174116954708257</v>
+        <v>0.1181292588319225</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03715116496248276</v>
+        <v>0.02688431073325175</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2017291766.741029</v>
+        <v>2042388820.5666</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1462513522811086</v>
+        <v>0.1470068420504447</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05091576735348698</v>
+        <v>0.04881037865896156</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1291944919.395065</v>
+        <v>1356342093.702107</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1073323652887168</v>
+        <v>0.0772574476779804</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02534307093677066</v>
+        <v>0.02429487977907228</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>868741551.9065965</v>
+        <v>995749697.0186892</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08055928410740998</v>
+        <v>0.08219558319055316</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02732530675645336</v>
+        <v>0.04244988731095761</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3014389442.487472</v>
+        <v>3014226511.191331</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1356221788150542</v>
+        <v>0.1333755486687061</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02719241659010736</v>
+        <v>0.0190507326535898</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2773875252.864951</v>
+        <v>2607890937.326259</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08084743039976351</v>
+        <v>0.08855168965142819</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03316668818860299</v>
+        <v>0.02601323039191308</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1523222613.396275</v>
+        <v>1328608709.737609</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07822496671772063</v>
+        <v>0.08494853875845181</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02691545334795986</v>
+        <v>0.02904826468512026</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1851371062.04014</v>
+        <v>1878057358.276078</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1817022143055186</v>
+        <v>0.1312697852442736</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02778917522148834</v>
+        <v>0.02223540068336579</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1410074715.964372</v>
+        <v>1345357378.126956</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1415761810026265</v>
+        <v>0.138747137644736</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04662377656879176</v>
+        <v>0.05622285964443431</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2894341211.185749</v>
+        <v>2006250353.949242</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1419640801289853</v>
+        <v>0.1496006144626278</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04384362976645842</v>
+        <v>0.04494379713689916</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3132009231.010762</v>
+        <v>3869300551.265986</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1254389737091553</v>
+        <v>0.1249120432449355</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0375062651650702</v>
+        <v>0.04012473704154073</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+      <c r="J42" t="n">
+        <v>50</v>
+      </c>
+      <c r="K42" t="n">
+        <v>201.0646450312</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3045660096.488481</v>
+        <v>3046921174.378209</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1738099735792623</v>
+        <v>0.1803889240329735</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01987682177811882</v>
+        <v>0.01805149234095895</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1708374934.316326</v>
+        <v>2130200971.842993</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09618787202783916</v>
+        <v>0.08531345345439428</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02257879156113792</v>
+        <v>0.0259926517061895</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1617391667.510768</v>
+        <v>2057474900.399901</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1696013770604951</v>
+        <v>0.1409898989179068</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05478977198696566</v>
+        <v>0.03932409429813774</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4742515625.87782</v>
+        <v>3642052374.090877</v>
       </c>
       <c r="F46" t="n">
-        <v>0.163294112545529</v>
+        <v>0.1408971222841988</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04433134026651047</v>
+        <v>0.04533355106735999</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>31</v>
+      </c>
+      <c r="J46" t="n">
+        <v>50</v>
+      </c>
+      <c r="K46" t="n">
+        <v>180.7011480495505</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4241272084.927475</v>
+        <v>4060512981.008122</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1251693712380665</v>
+        <v>0.1807662159847497</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04914202245029129</v>
+        <v>0.05883126827445827</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>50</v>
+      </c>
+      <c r="K47" t="n">
+        <v>175.891988131223</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4020571579.119619</v>
+        <v>4703831614.726917</v>
       </c>
       <c r="F48" t="n">
-        <v>0.072222186700987</v>
+        <v>0.08445958890761092</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03459646726745429</v>
+        <v>0.03214808726324305</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>17</v>
+      </c>
+      <c r="J48" t="n">
+        <v>50</v>
+      </c>
+      <c r="K48" t="n">
+        <v>202.1525264435892</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1808172259.339984</v>
+        <v>1419801036.233079</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1616465687425364</v>
+        <v>0.152849423862998</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04156089356709034</v>
+        <v>0.03699750693877586</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2860336997.185683</v>
+        <v>3439410787.630345</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1261564288617875</v>
+        <v>0.1772133658755024</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03380972126987767</v>
+        <v>0.03867364436891663</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>18</v>
+      </c>
+      <c r="J50" t="n">
+        <v>50</v>
+      </c>
+      <c r="K50" t="n">
+        <v>161.3258181871033</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1027887248.885996</v>
+        <v>1500531464.801425</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1521236840330281</v>
+        <v>0.1809534337250489</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05150877500351068</v>
+        <v>0.04742079662010904</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4256455413.409637</v>
+        <v>4664405486.588536</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1134234060264506</v>
+        <v>0.127981122209111</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05622856782115345</v>
+        <v>0.06045348996404003</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>39</v>
+      </c>
+      <c r="J52" t="n">
+        <v>51</v>
+      </c>
+      <c r="K52" t="n">
+        <v>218.7799891326249</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3128393237.164866</v>
+        <v>2483985104.025179</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1714054326681334</v>
+        <v>0.1448199279087509</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03398472041874687</v>
+        <v>0.02342218825113342</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4490379259.475147</v>
+        <v>3895913608.256413</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1552968117511374</v>
+        <v>0.160567496476379</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0524065564106171</v>
+        <v>0.05158337238733455</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
+        <v>51</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3399310914.934661</v>
+        <v>4330317800.879263</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1350768743488941</v>
+        <v>0.1457031112765849</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02875824525001647</v>
+        <v>0.0258700354424199</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>24</v>
+      </c>
+      <c r="J55" t="n">
+        <v>50</v>
+      </c>
+      <c r="K55" t="n">
+        <v>178.3841644858139</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1451249347.550184</v>
+        <v>1550254797.061111</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1264922363985571</v>
+        <v>0.1115763379233523</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05699352714076474</v>
+        <v>0.05701981426054852</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3578884038.8667</v>
+        <v>3252601484.323251</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1347172771851946</v>
+        <v>0.1765204023637981</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01763269261384698</v>
+        <v>0.0181849685592724</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>18</v>
+      </c>
+      <c r="J57" t="n">
+        <v>49</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1168248748.945374</v>
+        <v>1873289274.997516</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1377267888171751</v>
+        <v>0.1530174796866589</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03367892391911687</v>
+        <v>0.02506897152672627</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4914624903.972548</v>
+        <v>3985113488.705756</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1257674507033487</v>
+        <v>0.118673050083327</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04994695454863748</v>
+        <v>0.03470317297815234</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24</v>
+      </c>
+      <c r="J59" t="n">
+        <v>51</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2930111831.875788</v>
+        <v>2893898046.596801</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1279832025155713</v>
+        <v>0.199792214310416</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03087655531323292</v>
+        <v>0.02966670031057836</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>50</v>
+      </c>
+      <c r="K60" t="n">
+        <v>107.7829889208924</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2424811201.559552</v>
+        <v>2434027782.879485</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1691404073026914</v>
+        <v>0.1097711228703948</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03257590705629793</v>
+        <v>0.02615770446820264</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2006288460.283242</v>
+        <v>2078690282.189301</v>
       </c>
       <c r="F62" t="n">
-        <v>0.148447253972026</v>
+        <v>0.1920363493164942</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03605787599650582</v>
+        <v>0.04768991399246424</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3600783273.074441</v>
+        <v>5201057176.710695</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1031586325695074</v>
+        <v>0.067063696480289</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03510066990063394</v>
+        <v>0.03343994509352326</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25</v>
+      </c>
+      <c r="J63" t="n">
+        <v>50</v>
+      </c>
+      <c r="K63" t="n">
+        <v>188.2264322915333</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3522843335.020612</v>
+        <v>4941243336.186058</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1158143089793141</v>
+        <v>0.1168746223245572</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02788594457725549</v>
+        <v>0.03274928713698329</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+      <c r="J64" t="n">
+        <v>51</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2734,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5086023583.394056</v>
+        <v>3709930352.456841</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1224857647941827</v>
+        <v>0.1525641758365044</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02895240780457534</v>
+        <v>0.02577557565971375</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>42</v>
+      </c>
+      <c r="J65" t="n">
+        <v>50</v>
+      </c>
+      <c r="K65" t="n">
+        <v>190.3448928744117</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4193762048.414045</v>
+        <v>4898718725.841979</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1591306928903981</v>
+        <v>0.127839972512941</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0346386787113736</v>
+        <v>0.03251536849116766</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+      <c r="J66" t="n">
+        <v>51</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2433656470.980548</v>
+        <v>2390069697.405977</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08970467409404462</v>
+        <v>0.06441606200251691</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03916357599245879</v>
+        <v>0.04148768480001131</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3696591916.522049</v>
+        <v>4788152314.193529</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1098191229217762</v>
+        <v>0.1232112411985047</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04954680200582824</v>
+        <v>0.03673718684943279</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+      <c r="J68" t="n">
+        <v>51</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1830403951.517286</v>
+        <v>2306451042.13904</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1275904057981798</v>
+        <v>0.1224456000620422</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04983533530074093</v>
+        <v>0.05538720665072381</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3255293135.090867</v>
+        <v>2834685742.05141</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07460020843528063</v>
+        <v>0.1032901960159015</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04289842531007228</v>
+        <v>0.03532890274338472</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>46</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4632320834.592346</v>
+        <v>3731719954.958285</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1257628165859104</v>
+        <v>0.1681091719944892</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03273728954915905</v>
+        <v>0.03270406688957676</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>41</v>
+      </c>
+      <c r="J71" t="n">
+        <v>51</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1780569623.881554</v>
+        <v>2205101552.199939</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09621118251905196</v>
+        <v>0.07129294581585736</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03695382741894866</v>
+        <v>0.0323490819069924</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2309345702.812736</v>
+        <v>3459570050.052937</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07288443464422535</v>
+        <v>0.07209854598510546</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05155689542868123</v>
+        <v>0.03250346462284679</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3403267464.569995</v>
+        <v>3605359513.30622</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1321106896428509</v>
+        <v>0.1779000193834599</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02311918878940344</v>
+        <v>0.03452334479684265</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>16</v>
+      </c>
+      <c r="J74" t="n">
+        <v>50</v>
+      </c>
+      <c r="K74" t="n">
+        <v>179.3407895716722</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1651954337.034369</v>
+        <v>2471993989.62287</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1127165102442641</v>
+        <v>0.155295207193509</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03014049579060992</v>
+        <v>0.02286222901283937</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4653517375.714808</v>
+        <v>3639548867.962492</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1060885931029441</v>
+        <v>0.07674628914006024</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0248761262854882</v>
+        <v>0.0217458788549727</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>23</v>
+      </c>
+      <c r="J76" t="n">
+        <v>51</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2294547966.829135</v>
+        <v>2081441142.362811</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1558109437075752</v>
+        <v>0.1414761682089054</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02559059322951375</v>
+        <v>0.02032598470461205</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3968410098.426162</v>
+        <v>3759916118.063352</v>
       </c>
       <c r="F78" t="n">
-        <v>0.102830679554081</v>
+        <v>0.1345513273570001</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04373700637385156</v>
+        <v>0.05056849623524032</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>22</v>
+      </c>
+      <c r="J78" t="n">
+        <v>50</v>
+      </c>
+      <c r="K78" t="n">
+        <v>193.4124505152052</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1531407378.682575</v>
+        <v>1601996348.66675</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1498729738287709</v>
+        <v>0.1487922529798571</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03424536068592349</v>
+        <v>0.03302389381669429</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3895248124.692515</v>
+        <v>4349613729.183192</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06773277545723953</v>
+        <v>0.0867331968503439</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02447804962602747</v>
+        <v>0.02734452323883706</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>24</v>
+      </c>
+      <c r="J80" t="n">
+        <v>51</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4132565766.571198</v>
+        <v>4444684560.518844</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1298094979026995</v>
+        <v>0.1037770857189826</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02766222181781652</v>
+        <v>0.02201452478936968</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>22</v>
+      </c>
+      <c r="J81" t="n">
+        <v>51</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4210765199.06383</v>
+        <v>3809288629.823291</v>
       </c>
       <c r="F82" t="n">
-        <v>0.14486841858758</v>
+        <v>0.1670453977703502</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02681690545910343</v>
+        <v>0.01873287216086574</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>29</v>
+      </c>
+      <c r="J82" t="n">
+        <v>50</v>
+      </c>
+      <c r="K82" t="n">
+        <v>202.5870844893673</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1970761965.217041</v>
+        <v>1698255656.258568</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1579745528337683</v>
+        <v>0.1176582484127861</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02866493638007031</v>
+        <v>0.04054968010434215</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2191927874.789053</v>
+        <v>2097748867.944082</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1011199275074913</v>
+        <v>0.08288015548375539</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04149912985278775</v>
+        <v>0.05074307049295073</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2247882335.378959</v>
+        <v>3452579876.421196</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1460612995125133</v>
+        <v>0.1275827581303252</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04406056192410298</v>
+        <v>0.04914639524927825</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>48</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2191798225.10931</v>
+        <v>1950220621.542321</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1175701603141464</v>
+        <v>0.114512572740657</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02489874106508914</v>
+        <v>0.02339497037517843</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1188565150.577102</v>
+        <v>954392726.6524241</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1710722416584519</v>
+        <v>0.1404372268158461</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03070083356820802</v>
+        <v>0.03525589713195293</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2249462954.492661</v>
+        <v>3562509437.977557</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1153091077994091</v>
+        <v>0.1780105861908578</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02672608889683227</v>
+        <v>0.03272133963061476</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>46</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2828551681.81047</v>
+        <v>2860018786.458346</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1350396137446416</v>
+        <v>0.1392029885856356</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03465678869015924</v>
+        <v>0.03668890805110468</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1858443189.620714</v>
+        <v>1504913657.62664</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1057111308566706</v>
+        <v>0.09304207545832861</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04514968858090151</v>
+        <v>0.04908463995537177</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1474582428.595972</v>
+        <v>1834194680.58412</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1193929216322213</v>
+        <v>0.1567995981960853</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03947755153771352</v>
+        <v>0.04401165747206188</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1928142469.688688</v>
+        <v>2732604802.36657</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06939990490098023</v>
+        <v>0.06993623340122303</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04411904815728213</v>
+        <v>0.03907684707868519</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4620109533.280304</v>
+        <v>3239064156.855736</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1020803524256462</v>
+        <v>0.1180065967821676</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03824095742917175</v>
+        <v>0.04691002755502512</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>23</v>
+      </c>
+      <c r="J93" t="n">
+        <v>50</v>
+      </c>
+      <c r="K93" t="n">
+        <v>133.1520772500517</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2503930086.542976</v>
+        <v>2357578969.318566</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1445558574579462</v>
+        <v>0.138983091971194</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02883781282798816</v>
+        <v>0.02855812075976264</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2710270582.30126</v>
+        <v>2217405568.005047</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1363669150981942</v>
+        <v>0.1210886672338987</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05115868604129296</v>
+        <v>0.0518657510932219</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1843546237.35774</v>
+        <v>1467528715.899849</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1119868247191703</v>
+        <v>0.1405193104403929</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04338596291127203</v>
+        <v>0.03821749808152616</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3561155270.633154</v>
+        <v>4355685454.428133</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1723636949902827</v>
+        <v>0.1307041381251059</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01882804434326053</v>
+        <v>0.01874087240776531</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>50</v>
+      </c>
+      <c r="K97" t="n">
+        <v>203.7383536615164</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2619804870.207043</v>
+        <v>2678938235.666711</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1060751093884679</v>
+        <v>0.08157124661780671</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02891935246058061</v>
+        <v>0.02876653371285941</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>12</v>
+      </c>
+      <c r="J98" t="n">
+        <v>48</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2749673563.423232</v>
+        <v>2403711934.392436</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1086776179440644</v>
+        <v>0.1193583780859004</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03415669360163993</v>
+        <v>0.03165127401367993</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3952582788.059816</v>
+        <v>3106655206.613812</v>
       </c>
       <c r="F100" t="n">
-        <v>0.12546964955227</v>
+        <v>0.1502280844675193</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02229267553214306</v>
+        <v>0.02332069255292957</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>22</v>
+      </c>
+      <c r="J100" t="n">
+        <v>49</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3519378330.135406</v>
+        <v>2324316391.346617</v>
       </c>
       <c r="F101" t="n">
-        <v>0.168662177137744</v>
+        <v>0.2173915715894021</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04206001999529068</v>
+        <v>0.0404691125141047</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
